--- a/策划/Props.xlsx
+++ b/策划/Props.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="894" firstSheet="3" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="910" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="!表格式" sheetId="7" r:id="rId1"/>
@@ -2648,14 +2648,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2834,7 +2827,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3035,12 +3028,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3155,46 +3142,49 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3206,97 +3196,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3689,7 +3676,7 @@
   <sheetPr/>
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -5145,7 +5132,7 @@
   <sheetPr/>
   <dimension ref="A1:D203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -8013,8 +8000,8 @@
   <sheetPr/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>

--- a/策划/Props.xlsx
+++ b/策划/Props.xlsx
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="821">
   <si>
     <t>sheet名字格式：中文名|英文名，否则不会导出</t>
   </si>
@@ -2203,7 +2203,16 @@
     <t>首充礼包</t>
   </si>
   <si>
-    <t>2000-1|2001-1|2002-1|2003-1|2004-1|2005-1|2006-1|2007-1|2008-1|3000-1|3001-1|3002-1|3003-1|3004-1|3005-1|40000-1|40001-1|40002-1|40003-1|40004-1|40005-1|40006-1|40007-1</t>
+    <t>2000-1|2001-1|2002-1|2003-1|2004-1|2005-1|2006-1|2007-1|2008-1|3000-1|3001-1|3002-1|3003-1|3004-1|3005-1|4000-10|4001-10|4002-10|4003-10|4004-10|4005-10|4006-10|4007-10|4008-10|4009-10|40000-1|40001-1|40002-1|40003-1|40004-1|40005-1|40006-1|40007-1</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>首充礼包2</t>
+  </si>
+  <si>
+    <t>40040-1|40056-1|40064-1|49996-1</t>
   </si>
   <si>
     <t>3000</t>
@@ -2816,12 +2825,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3676,7 +3685,7 @@
   <sheetPr/>
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -7998,10 +8007,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -8151,7 +8160,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="15" ht="71.25" spans="1:3">
+    <row r="15" ht="114" spans="1:3">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -8160,6 +8169,17 @@
       </c>
       <c r="C15" s="1" t="s">
         <v>673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -8207,154 +8227,154 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -8385,10 +8405,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8399,10 +8419,10 @@
         <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8424,7 +8444,7 @@
         <v>4000</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -8438,7 +8458,7 @@
         <v>4001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -8452,7 +8472,7 @@
         <v>4002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -8466,7 +8486,7 @@
         <v>4003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -8480,7 +8500,7 @@
         <v>4004</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -8494,7 +8514,7 @@
         <v>4005</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -8508,7 +8528,7 @@
         <v>4006</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -8522,7 +8542,7 @@
         <v>4007</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -8536,7 +8556,7 @@
         <v>4008</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -8550,7 +8570,7 @@
         <v>4009</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -8589,10 +8609,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8603,10 +8623,10 @@
         <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8625,353 +8645,353 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C7" s="1">
         <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C8" s="1">
         <v>102</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C9" s="1">
         <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C10" s="1">
         <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C11" s="1">
         <v>105</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="C12" s="1">
         <v>106</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C13" s="1">
         <v>101</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C14" s="1">
         <v>102</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C15" s="1">
         <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="C16" s="1">
         <v>104</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="C17" s="1">
         <v>105</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C18" s="1">
         <v>106</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C19" s="1">
         <v>101</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="C20" s="1">
         <v>102</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="C21" s="1">
         <v>103</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C22" s="1">
         <v>104</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C23" s="1">
         <v>105</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="C24" s="1">
         <v>106</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -9004,13 +9024,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9021,13 +9041,13 @@
         <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9049,152 +9069,152 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>800</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>

--- a/策划/Props.xlsx
+++ b/策划/Props.xlsx
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="836">
   <si>
     <t>sheet名字格式：中文名|英文名，否则不会导出</t>
   </si>
@@ -2213,6 +2213,51 @@
   </si>
   <si>
     <t>40040-1|40056-1|40064-1|49996-1</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>微型经验胶囊</t>
+  </si>
+  <si>
+    <t>1003-100</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>小型经验胶囊</t>
+  </si>
+  <si>
+    <t>1003-1000</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>中型经验胶囊</t>
+  </si>
+  <si>
+    <t>1003-10000</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>大型经验胶囊</t>
+  </si>
+  <si>
+    <t>1003-100000</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>巨型经验胶囊</t>
+  </si>
+  <si>
+    <t>1003-1000000</t>
   </si>
   <si>
     <t>3000</t>
@@ -2825,12 +2870,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3296,10 +3341,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3660,17 +3708,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="77.125" style="9" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="77.125" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="185.25" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3727,1103 +3775,1103 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" spans="1:3">
-      <c r="A4" s="6" t="s">
+    <row r="4" s="7" customFormat="1" spans="1:3">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" spans="1:3">
-      <c r="A5" s="6" t="s">
+    <row r="5" s="7" customFormat="1" spans="1:3">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" spans="1:3">
-      <c r="A6" s="6" t="s">
+    <row r="6" s="7" customFormat="1" spans="1:3">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" spans="1:3">
-      <c r="A7" s="6" t="s">
+    <row r="7" s="7" customFormat="1" spans="1:3">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" spans="1:3">
-      <c r="A8" s="6" t="s">
+    <row r="8" s="7" customFormat="1" spans="1:3">
+      <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" spans="1:3">
-      <c r="A9" s="6" t="s">
+    <row r="9" s="7" customFormat="1" spans="1:3">
+      <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" spans="1:3">
-      <c r="A10" s="6" t="s">
+    <row r="10" s="7" customFormat="1" spans="1:3">
+      <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" spans="1:3">
-      <c r="A11" s="6" t="s">
+    <row r="11" s="7" customFormat="1" spans="1:3">
+      <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="12" s="7" customFormat="1" spans="1:3">
-      <c r="A12" s="7" t="s">
+    <row r="12" s="8" customFormat="1" spans="1:3">
+      <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="7" customFormat="1" spans="1:3">
-      <c r="A13" s="7" t="s">
+    <row r="13" s="8" customFormat="1" spans="1:3">
+      <c r="A13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="14" s="7" customFormat="1" spans="1:3">
-      <c r="A14" s="7" t="s">
+    <row r="14" s="8" customFormat="1" spans="1:3">
+      <c r="A14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="15" s="7" customFormat="1" spans="1:3">
-      <c r="A15" s="7" t="s">
+    <row r="15" s="8" customFormat="1" spans="1:3">
+      <c r="A15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="16" s="7" customFormat="1" spans="1:3">
-      <c r="A16" s="7" t="s">
+    <row r="16" s="8" customFormat="1" spans="1:3">
+      <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="17" s="7" customFormat="1" spans="1:3">
-      <c r="A17" s="7" t="s">
+    <row r="17" s="8" customFormat="1" spans="1:3">
+      <c r="A17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="18" s="7" customFormat="1" spans="1:3">
-      <c r="A18" s="7" t="s">
+    <row r="18" s="8" customFormat="1" spans="1:3">
+      <c r="A18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="19" s="7" customFormat="1" spans="1:3">
-      <c r="A19" s="7" t="s">
+    <row r="19" s="8" customFormat="1" spans="1:3">
+      <c r="A19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="1" spans="1:3">
-      <c r="A20" s="6" t="s">
+    <row r="20" s="7" customFormat="1" spans="1:3">
+      <c r="A20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="1" spans="1:3">
-      <c r="A21" s="6" t="s">
+    <row r="21" s="7" customFormat="1" spans="1:3">
+      <c r="A21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" spans="1:3">
-      <c r="A22" s="6" t="s">
+    <row r="22" s="7" customFormat="1" spans="1:3">
+      <c r="A22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="23" s="6" customFormat="1" spans="1:3">
-      <c r="A23" s="6" t="s">
+    <row r="23" s="7" customFormat="1" spans="1:3">
+      <c r="A23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="24" s="6" customFormat="1" spans="1:3">
-      <c r="A24" s="6" t="s">
+    <row r="24" s="7" customFormat="1" spans="1:3">
+      <c r="A24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="1" spans="1:3">
-      <c r="A25" s="6" t="s">
+    <row r="25" s="7" customFormat="1" spans="1:3">
+      <c r="A25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="1" spans="1:3">
-      <c r="A26" s="6" t="s">
+    <row r="26" s="7" customFormat="1" spans="1:3">
+      <c r="A26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" spans="1:3">
-      <c r="A27" s="6" t="s">
+    <row r="27" s="7" customFormat="1" spans="1:3">
+      <c r="A27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="28" s="7" customFormat="1" spans="1:3">
-      <c r="A28" s="7" t="s">
+    <row r="28" s="8" customFormat="1" spans="1:3">
+      <c r="A28" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="29" s="7" customFormat="1" spans="1:3">
-      <c r="A29" s="7" t="s">
+    <row r="29" s="8" customFormat="1" spans="1:3">
+      <c r="A29" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="30" s="7" customFormat="1" spans="1:3">
-      <c r="A30" s="7" t="s">
+    <row r="30" s="8" customFormat="1" spans="1:3">
+      <c r="A30" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="31" s="7" customFormat="1" spans="1:3">
-      <c r="A31" s="7" t="s">
+    <row r="31" s="8" customFormat="1" spans="1:3">
+      <c r="A31" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="32" s="7" customFormat="1" spans="1:3">
-      <c r="A32" s="7" t="s">
+    <row r="32" s="8" customFormat="1" spans="1:3">
+      <c r="A32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="33" s="7" customFormat="1" spans="1:3">
-      <c r="A33" s="7" t="s">
+    <row r="33" s="8" customFormat="1" spans="1:3">
+      <c r="A33" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="34" s="7" customFormat="1" spans="1:3">
-      <c r="A34" s="7" t="s">
+    <row r="34" s="8" customFormat="1" spans="1:3">
+      <c r="A34" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="35" s="7" customFormat="1" spans="1:3">
-      <c r="A35" s="7" t="s">
+    <row r="35" s="8" customFormat="1" spans="1:3">
+      <c r="A35" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="36" s="6" customFormat="1" spans="1:3">
-      <c r="A36" s="6" t="s">
+    <row r="36" s="7" customFormat="1" spans="1:3">
+      <c r="A36" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="37" s="6" customFormat="1" spans="1:3">
-      <c r="A37" s="6" t="s">
+    <row r="37" s="7" customFormat="1" spans="1:3">
+      <c r="A37" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="38" s="6" customFormat="1" spans="1:3">
-      <c r="A38" s="6" t="s">
+    <row r="38" s="7" customFormat="1" spans="1:3">
+      <c r="A38" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="39" s="6" customFormat="1" spans="1:3">
-      <c r="A39" s="6" t="s">
+    <row r="39" s="7" customFormat="1" spans="1:3">
+      <c r="A39" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="40" s="6" customFormat="1" spans="1:3">
-      <c r="A40" s="6" t="s">
+    <row r="40" s="7" customFormat="1" spans="1:3">
+      <c r="A40" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="41" s="6" customFormat="1" spans="1:3">
-      <c r="A41" s="6" t="s">
+    <row r="41" s="7" customFormat="1" spans="1:3">
+      <c r="A41" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="42" s="6" customFormat="1" spans="1:3">
-      <c r="A42" s="6" t="s">
+    <row r="42" s="7" customFormat="1" spans="1:3">
+      <c r="A42" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="43" s="6" customFormat="1" spans="1:3">
-      <c r="A43" s="6" t="s">
+    <row r="43" s="7" customFormat="1" spans="1:3">
+      <c r="A43" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="44" s="7" customFormat="1" spans="1:3">
-      <c r="A44" s="7" t="s">
+    <row r="44" s="8" customFormat="1" spans="1:3">
+      <c r="A44" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="45" s="7" customFormat="1" spans="1:3">
-      <c r="A45" s="7" t="s">
+    <row r="45" s="8" customFormat="1" spans="1:3">
+      <c r="A45" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="46" s="7" customFormat="1" spans="1:3">
-      <c r="A46" s="7" t="s">
+    <row r="46" s="8" customFormat="1" spans="1:3">
+      <c r="A46" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="47" s="7" customFormat="1" spans="1:3">
-      <c r="A47" s="7" t="s">
+    <row r="47" s="8" customFormat="1" spans="1:3">
+      <c r="A47" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="48" s="7" customFormat="1" spans="1:3">
-      <c r="A48" s="7" t="s">
+    <row r="48" s="8" customFormat="1" spans="1:3">
+      <c r="A48" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="49" s="7" customFormat="1" spans="1:3">
-      <c r="A49" s="7" t="s">
+    <row r="49" s="8" customFormat="1" spans="1:3">
+      <c r="A49" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="50" s="7" customFormat="1" spans="1:3">
-      <c r="A50" s="7" t="s">
+    <row r="50" s="8" customFormat="1" spans="1:3">
+      <c r="A50" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="51" s="7" customFormat="1" spans="1:3">
-      <c r="A51" s="7" t="s">
+    <row r="51" s="8" customFormat="1" spans="1:3">
+      <c r="A51" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="52" s="6" customFormat="1" spans="1:3">
-      <c r="A52" s="6" t="s">
+    <row r="52" s="7" customFormat="1" spans="1:3">
+      <c r="A52" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="53" s="6" customFormat="1" spans="1:3">
-      <c r="A53" s="6" t="s">
+    <row r="53" s="7" customFormat="1" spans="1:3">
+      <c r="A53" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="54" s="6" customFormat="1" spans="1:3">
-      <c r="A54" s="6" t="s">
+    <row r="54" s="7" customFormat="1" spans="1:3">
+      <c r="A54" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="55" s="6" customFormat="1" spans="1:3">
-      <c r="A55" s="6" t="s">
+    <row r="55" s="7" customFormat="1" spans="1:3">
+      <c r="A55" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="56" s="6" customFormat="1" spans="1:3">
-      <c r="A56" s="6" t="s">
+    <row r="56" s="7" customFormat="1" spans="1:3">
+      <c r="A56" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="57" s="6" customFormat="1" spans="1:3">
-      <c r="A57" s="6" t="s">
+    <row r="57" s="7" customFormat="1" spans="1:3">
+      <c r="A57" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="58" s="6" customFormat="1" spans="1:3">
-      <c r="A58" s="6" t="s">
+    <row r="58" s="7" customFormat="1" spans="1:3">
+      <c r="A58" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="59" s="6" customFormat="1" spans="1:3">
-      <c r="A59" s="6" t="s">
+    <row r="59" s="7" customFormat="1" spans="1:3">
+      <c r="A59" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="60" s="7" customFormat="1" spans="1:3">
-      <c r="A60" s="7" t="s">
+    <row r="60" s="8" customFormat="1" spans="1:3">
+      <c r="A60" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="61" s="7" customFormat="1" spans="1:3">
-      <c r="A61" s="7" t="s">
+    <row r="61" s="8" customFormat="1" spans="1:3">
+      <c r="A61" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="62" s="7" customFormat="1" spans="1:3">
-      <c r="A62" s="7" t="s">
+    <row r="62" s="8" customFormat="1" spans="1:3">
+      <c r="A62" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="63" s="7" customFormat="1" spans="1:3">
-      <c r="A63" s="7" t="s">
+    <row r="63" s="8" customFormat="1" spans="1:3">
+      <c r="A63" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="64" s="7" customFormat="1" spans="1:3">
-      <c r="A64" s="7" t="s">
+    <row r="64" s="8" customFormat="1" spans="1:3">
+      <c r="A64" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="65" s="7" customFormat="1" spans="1:3">
-      <c r="A65" s="7" t="s">
+    <row r="65" s="8" customFormat="1" spans="1:3">
+      <c r="A65" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="66" s="7" customFormat="1" spans="1:3">
-      <c r="A66" s="7" t="s">
+    <row r="66" s="8" customFormat="1" spans="1:3">
+      <c r="A66" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="67" s="7" customFormat="1" spans="1:3">
-      <c r="A67" s="7" t="s">
+    <row r="67" s="8" customFormat="1" spans="1:3">
+      <c r="A67" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="68" s="6" customFormat="1" spans="1:3">
-      <c r="A68" s="6" t="s">
+    <row r="68" s="7" customFormat="1" spans="1:3">
+      <c r="A68" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="69" s="6" customFormat="1" spans="1:3">
-      <c r="A69" s="6" t="s">
+    <row r="69" s="7" customFormat="1" spans="1:3">
+      <c r="A69" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="70" s="6" customFormat="1" spans="1:3">
-      <c r="A70" s="6" t="s">
+    <row r="70" s="7" customFormat="1" spans="1:3">
+      <c r="A70" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="71" s="6" customFormat="1" spans="1:3">
-      <c r="A71" s="6" t="s">
+    <row r="71" s="7" customFormat="1" spans="1:3">
+      <c r="A71" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="72" s="6" customFormat="1" spans="1:3">
-      <c r="A72" s="6" t="s">
+    <row r="72" s="7" customFormat="1" spans="1:3">
+      <c r="A72" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="73" s="6" customFormat="1" spans="1:3">
-      <c r="A73" s="6" t="s">
+    <row r="73" s="7" customFormat="1" spans="1:3">
+      <c r="A73" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="74" s="6" customFormat="1" spans="1:3">
-      <c r="A74" s="6" t="s">
+    <row r="74" s="7" customFormat="1" spans="1:3">
+      <c r="A74" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="75" s="6" customFormat="1" spans="1:3">
-      <c r="A75" s="6" t="s">
+    <row r="75" s="7" customFormat="1" spans="1:3">
+      <c r="A75" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="76" s="7" customFormat="1" spans="1:3">
-      <c r="A76" s="7" t="s">
+    <row r="76" s="8" customFormat="1" spans="1:3">
+      <c r="A76" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="77" s="7" customFormat="1" spans="1:3">
-      <c r="A77" s="7" t="s">
+    <row r="77" s="8" customFormat="1" spans="1:3">
+      <c r="A77" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="78" s="7" customFormat="1" spans="1:3">
-      <c r="A78" s="7" t="s">
+    <row r="78" s="8" customFormat="1" spans="1:3">
+      <c r="A78" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="79" s="7" customFormat="1" spans="1:3">
-      <c r="A79" s="7" t="s">
+    <row r="79" s="8" customFormat="1" spans="1:3">
+      <c r="A79" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="80" s="7" customFormat="1" spans="1:3">
-      <c r="A80" s="7" t="s">
+    <row r="80" s="8" customFormat="1" spans="1:3">
+      <c r="A80" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="81" s="7" customFormat="1" spans="1:3">
-      <c r="A81" s="7" t="s">
+    <row r="81" s="8" customFormat="1" spans="1:3">
+      <c r="A81" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="82" s="7" customFormat="1" spans="1:3">
-      <c r="A82" s="7" t="s">
+    <row r="82" s="8" customFormat="1" spans="1:3">
+      <c r="A82" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="83" s="7" customFormat="1" spans="1:3">
-      <c r="A83" s="7" t="s">
+    <row r="83" s="8" customFormat="1" spans="1:3">
+      <c r="A83" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="84" s="6" customFormat="1" spans="1:3">
-      <c r="A84" s="6" t="s">
+    <row r="84" s="7" customFormat="1" spans="1:3">
+      <c r="A84" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="85" s="6" customFormat="1" spans="1:3">
-      <c r="A85" s="6" t="s">
+    <row r="85" s="7" customFormat="1" spans="1:3">
+      <c r="A85" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="86" s="6" customFormat="1" spans="1:3">
-      <c r="A86" s="6" t="s">
+    <row r="86" s="7" customFormat="1" spans="1:3">
+      <c r="A86" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="87" s="6" customFormat="1" spans="1:3">
-      <c r="A87" s="6" t="s">
+    <row r="87" s="7" customFormat="1" spans="1:3">
+      <c r="A87" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="88" s="6" customFormat="1" spans="1:3">
-      <c r="A88" s="6" t="s">
+    <row r="88" s="7" customFormat="1" spans="1:3">
+      <c r="A88" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="89" s="6" customFormat="1" spans="1:3">
-      <c r="A89" s="6" t="s">
+    <row r="89" s="7" customFormat="1" spans="1:3">
+      <c r="A89" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="90" s="6" customFormat="1" spans="1:3">
-      <c r="A90" s="6" t="s">
+    <row r="90" s="7" customFormat="1" spans="1:3">
+      <c r="A90" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="91" s="6" customFormat="1" spans="1:3">
-      <c r="A91" s="6" t="s">
+    <row r="91" s="7" customFormat="1" spans="1:3">
+      <c r="A91" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="92" s="7" customFormat="1" spans="1:3">
-      <c r="A92" s="7" t="s">
+    <row r="92" s="8" customFormat="1" spans="1:3">
+      <c r="A92" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="93" s="7" customFormat="1" spans="1:3">
-      <c r="A93" s="7" t="s">
+    <row r="93" s="8" customFormat="1" spans="1:3">
+      <c r="A93" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="94" s="7" customFormat="1" spans="1:3">
-      <c r="A94" s="7" t="s">
+    <row r="94" s="8" customFormat="1" spans="1:3">
+      <c r="A94" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="95" s="7" customFormat="1" spans="1:3">
-      <c r="A95" s="7" t="s">
+    <row r="95" s="8" customFormat="1" spans="1:3">
+      <c r="A95" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="96" s="7" customFormat="1" spans="1:3">
-      <c r="A96" s="7" t="s">
+    <row r="96" s="8" customFormat="1" spans="1:3">
+      <c r="A96" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="97" s="7" customFormat="1" spans="1:3">
-      <c r="A97" s="7" t="s">
+    <row r="97" s="8" customFormat="1" spans="1:3">
+      <c r="A97" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="98" s="7" customFormat="1" spans="1:3">
-      <c r="A98" s="7" t="s">
+    <row r="98" s="8" customFormat="1" spans="1:3">
+      <c r="A98" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="99" s="7" customFormat="1" spans="1:3">
-      <c r="A99" s="7" t="s">
+    <row r="99" s="8" customFormat="1" spans="1:3">
+      <c r="A99" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="100" s="8" customFormat="1" spans="1:3">
-      <c r="A100" s="8" t="s">
+    <row r="100" s="9" customFormat="1" spans="1:3">
+      <c r="A100" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="101" s="8" customFormat="1" spans="1:3">
-      <c r="A101" s="8" t="s">
+    <row r="101" s="9" customFormat="1" spans="1:3">
+      <c r="A101" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="102" s="8" customFormat="1" spans="1:3">
-      <c r="A102" s="8" t="s">
+    <row r="102" s="9" customFormat="1" spans="1:3">
+      <c r="A102" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="103" s="8" customFormat="1" spans="1:3">
-      <c r="A103" s="8" t="s">
+    <row r="103" s="9" customFormat="1" spans="1:3">
+      <c r="A103" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="9" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4846,287 +4894,287 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="19.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21" style="4" customWidth="1"/>
-    <col min="6" max="6" width="25.25" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="1" max="2" width="9" style="5"/>
+    <col min="3" max="3" width="19.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.25" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5147,2851 +5195,2851 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="13" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>7000</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>7001</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>7002</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>7003</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>7004</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>7005</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>7006</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>7007</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>7008</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>7009</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>7010</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>7011</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>7012</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>7013</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>7014</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>7015</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>7016</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>7017</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>7018</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>7019</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>7020</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>7021</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>7022</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>7023</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>7024</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>7025</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>7026</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>7027</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>7028</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>7029</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>7030</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>7031</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>7032</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>7033</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>7034</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>7035</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>7036</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>7037</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>7038</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>7039</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>7040</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>7041</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>7042</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>7043</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>7044</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>7045</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>7046</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>7047</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>7048</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>7049</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>7050</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>7051</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>7052</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>7053</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>7054</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>7055</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>7056</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>7057</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>7058</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>7059</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>7060</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>7061</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>7062</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>7063</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>7064</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <v>7065</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>7066</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>7067</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="2">
+      <c r="A72" s="3">
         <v>7068</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="2">
+      <c r="A73" s="3">
         <v>7069</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>7070</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="2">
+      <c r="A75" s="3">
         <v>7071</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <v>7072</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="2">
+      <c r="A77" s="3">
         <v>7073</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="2">
+      <c r="A78" s="3">
         <v>7074</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="2">
+      <c r="A79" s="3">
         <v>7075</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="2">
+      <c r="A80" s="3">
         <v>7076</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="2">
+      <c r="A81" s="3">
         <v>7077</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="2">
+      <c r="A82" s="3">
         <v>7078</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="2">
+      <c r="A83" s="3">
         <v>7079</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="2">
+      <c r="A84" s="3">
         <v>7080</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="2">
+      <c r="A85" s="3">
         <v>7081</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="2">
+      <c r="A86" s="3">
         <v>7082</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="2">
+      <c r="A87" s="3">
         <v>7083</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="2">
+      <c r="A88" s="3">
         <v>7084</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="2">
+      <c r="A89" s="3">
         <v>7085</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="2">
+      <c r="A90" s="3">
         <v>7086</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="2">
+      <c r="A91" s="3">
         <v>7087</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="2">
+      <c r="A92" s="3">
         <v>7088</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="2">
+      <c r="A93" s="3">
         <v>7089</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="2">
+      <c r="A94" s="3">
         <v>7090</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="2">
+      <c r="A95" s="3">
         <v>7091</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="2">
+      <c r="A96" s="3">
         <v>7092</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="2">
+      <c r="A97" s="3">
         <v>7093</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="2">
+      <c r="A98" s="3">
         <v>7094</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="2">
+      <c r="A99" s="3">
         <v>7095</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="2">
+      <c r="A100" s="3">
         <v>7096</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="2">
+      <c r="A101" s="3">
         <v>7097</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="2">
+      <c r="A102" s="3">
         <v>7098</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="2">
+      <c r="A103" s="3">
         <v>7099</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="2">
+      <c r="A104" s="3">
         <v>7100</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="2">
+      <c r="A105" s="3">
         <v>7101</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="2">
+      <c r="A106" s="3">
         <v>7102</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="2">
+      <c r="A107" s="3">
         <v>7103</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="2">
+      <c r="A108" s="3">
         <v>7104</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="2">
+      <c r="A109" s="3">
         <v>7105</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="2">
+      <c r="A110" s="3">
         <v>7106</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="2">
+      <c r="A111" s="3">
         <v>7107</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="2">
+      <c r="A112" s="3">
         <v>7108</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="2">
+      <c r="A113" s="3">
         <v>7109</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="2">
+      <c r="A114" s="3">
         <v>7110</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="2">
+      <c r="A115" s="3">
         <v>7111</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="2">
+      <c r="A116" s="3">
         <v>7112</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="2">
+      <c r="A117" s="3">
         <v>7113</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="2">
+      <c r="A118" s="3">
         <v>7114</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="2">
+      <c r="A119" s="3">
         <v>7115</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="2">
+      <c r="A120" s="3">
         <v>7116</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="2">
+      <c r="A121" s="3">
         <v>7117</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="2">
+      <c r="A122" s="3">
         <v>7118</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="2">
+      <c r="A123" s="3">
         <v>7119</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="2">
+      <c r="A124" s="3">
         <v>7120</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="2">
+      <c r="A125" s="3">
         <v>7121</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="2">
+      <c r="A126" s="3">
         <v>7122</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="2">
+      <c r="A127" s="3">
         <v>7123</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="2">
+      <c r="A128" s="3">
         <v>7124</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="2">
+      <c r="A129" s="3">
         <v>7125</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="2">
+      <c r="A130" s="3">
         <v>7126</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="2">
+      <c r="A131" s="3">
         <v>7127</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="2">
+      <c r="A132" s="3">
         <v>7128</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="2">
+      <c r="A133" s="3">
         <v>7129</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="2">
+      <c r="A134" s="3">
         <v>7130</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="2">
+      <c r="A135" s="3">
         <v>7131</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="2">
+      <c r="A136" s="3">
         <v>7132</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="2">
+      <c r="A137" s="3">
         <v>7133</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="2">
+      <c r="A138" s="3">
         <v>7134</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="2">
+      <c r="A139" s="3">
         <v>7135</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="2">
+      <c r="A140" s="3">
         <v>7136</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="2">
+      <c r="A141" s="3">
         <v>7137</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="2">
+      <c r="A142" s="3">
         <v>7138</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="2">
+      <c r="A143" s="3">
         <v>7139</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="2">
+      <c r="A144" s="3">
         <v>7140</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="2">
+      <c r="A145" s="3">
         <v>7141</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="2">
+      <c r="A146" s="3">
         <v>7142</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="2">
+      <c r="A147" s="3">
         <v>7143</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="2">
+      <c r="A148" s="3">
         <v>7144</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="2">
+      <c r="A149" s="3">
         <v>7145</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="2">
+      <c r="A150" s="3">
         <v>7146</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="2">
+      <c r="A151" s="3">
         <v>7147</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="2">
+      <c r="A152" s="3">
         <v>7148</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="2">
+      <c r="A153" s="3">
         <v>7149</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="2">
+      <c r="A154" s="3">
         <v>7150</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="2">
+      <c r="A155" s="3">
         <v>7151</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="2">
+      <c r="A156" s="3">
         <v>7152</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="2">
+      <c r="A157" s="3">
         <v>7153</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="2">
+      <c r="A158" s="3">
         <v>7154</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="2">
+      <c r="A159" s="3">
         <v>7155</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="2">
+      <c r="A160" s="3">
         <v>7156</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="2">
+      <c r="A161" s="3">
         <v>7157</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="2">
+      <c r="A162" s="3">
         <v>7158</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="2">
+      <c r="A163" s="3">
         <v>7159</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="2">
+      <c r="A164" s="3">
         <v>7160</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="D164" s="2">
+      <c r="D164" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="2">
+      <c r="A165" s="3">
         <v>7161</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="D165" s="2">
+      <c r="D165" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="2">
+      <c r="A166" s="3">
         <v>7162</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="D166" s="2">
+      <c r="D166" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="2">
+      <c r="A167" s="3">
         <v>7163</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="2">
+      <c r="A168" s="3">
         <v>7164</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D168" s="2">
+      <c r="D168" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="2">
+      <c r="A169" s="3">
         <v>7165</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="D169" s="2">
+      <c r="D169" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="2">
+      <c r="A170" s="3">
         <v>7166</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="D170" s="2">
+      <c r="D170" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="2">
+      <c r="A171" s="3">
         <v>7167</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="D171" s="2">
+      <c r="D171" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="2">
+      <c r="A172" s="3">
         <v>7168</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D172" s="2">
+      <c r="D172" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="2">
+      <c r="A173" s="3">
         <v>7169</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D173" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="2">
+      <c r="A174" s="3">
         <v>7170</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="D174" s="2">
+      <c r="D174" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="2">
+      <c r="A175" s="3">
         <v>7171</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="D175" s="2">
+      <c r="D175" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="2">
+      <c r="A176" s="3">
         <v>7172</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="D176" s="2">
+      <c r="D176" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="2">
+      <c r="A177" s="3">
         <v>7173</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="D177" s="2">
+      <c r="D177" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="2">
+      <c r="A178" s="3">
         <v>7174</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="D178" s="2">
+      <c r="D178" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="2">
+      <c r="A179" s="3">
         <v>7175</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="D179" s="2">
+      <c r="D179" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="2">
+      <c r="A180" s="3">
         <v>7176</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="D180" s="2">
+      <c r="D180" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="2">
+      <c r="A181" s="3">
         <v>7177</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="D181" s="2">
+      <c r="D181" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="2">
+      <c r="A182" s="3">
         <v>7178</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="D182" s="2">
+      <c r="D182" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="2">
+      <c r="A183" s="3">
         <v>7179</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="D183" s="2">
+      <c r="D183" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="2">
+      <c r="A184" s="3">
         <v>7180</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="D184" s="2">
+      <c r="D184" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="2">
+      <c r="A185" s="3">
         <v>7181</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="D185" s="2">
+      <c r="D185" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="2">
+      <c r="A186" s="3">
         <v>7182</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="D186" s="2">
+      <c r="D186" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="2">
+      <c r="A187" s="3">
         <v>7183</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D187" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="2">
+      <c r="A188" s="3">
         <v>7184</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="D188" s="2">
+      <c r="D188" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="2">
+      <c r="A189" s="3">
         <v>7185</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="D189" s="2">
+      <c r="D189" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="2">
+      <c r="A190" s="3">
         <v>7186</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="D190" s="2">
+      <c r="D190" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="2">
+      <c r="A191" s="3">
         <v>7187</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="D191" s="2">
+      <c r="D191" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="2">
+      <c r="A192" s="3">
         <v>7188</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="D192" s="2">
+      <c r="D192" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="2">
+      <c r="A193" s="3">
         <v>7189</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="D193" s="2">
+      <c r="D193" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="2">
+      <c r="A194" s="3">
         <v>7190</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="D194" s="2">
+      <c r="D194" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="2">
+      <c r="A195" s="3">
         <v>7191</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="D195" s="2">
+      <c r="D195" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="2">
+      <c r="A196" s="3">
         <v>7192</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="D196" s="2">
+      <c r="D196" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="2">
+      <c r="A197" s="3">
         <v>7193</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D197" s="2">
+      <c r="D197" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" s="2">
+      <c r="A198" s="3">
         <v>7194</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="D198" s="2">
+      <c r="D198" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="2">
+      <c r="A199" s="3">
         <v>7195</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D199" s="2">
+      <c r="D199" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="2">
+      <c r="A200" s="3">
         <v>7196</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="D200" s="2">
+      <c r="D200" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="2">
+      <c r="A201" s="3">
         <v>7197</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="D201" s="2">
+      <c r="D201" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="2">
+      <c r="A202" s="3">
         <v>7198</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D202" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="2">
+      <c r="A203" s="3">
         <v>7199</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D203" s="3">
         <v>10</v>
       </c>
     </row>
@@ -8007,16 +8055,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
@@ -8180,6 +8228,61 @@
       </c>
       <c r="C16" s="1" t="s">
         <v>676</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -8227,154 +8330,154 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>704</v>
+        <v>719</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>
@@ -8405,10 +8508,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8419,10 +8522,10 @@
         <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8444,7 +8547,7 @@
         <v>4000</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -8458,7 +8561,7 @@
         <v>4001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -8472,7 +8575,7 @@
         <v>4002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -8486,7 +8589,7 @@
         <v>4003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -8500,7 +8603,7 @@
         <v>4004</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -8514,7 +8617,7 @@
         <v>4005</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -8528,7 +8631,7 @@
         <v>4006</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -8542,7 +8645,7 @@
         <v>4007</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -8556,7 +8659,7 @@
         <v>4008</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -8570,7 +8673,7 @@
         <v>4009</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -8609,10 +8712,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8623,10 +8726,10 @@
         <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8645,353 +8748,353 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>736</v>
+        <v>751</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>737</v>
+        <v>752</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>740</v>
+        <v>755</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="C7" s="1">
         <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="C8" s="1">
         <v>102</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="C9" s="1">
         <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
       <c r="C10" s="1">
         <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>749</v>
+        <v>764</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="C11" s="1">
         <v>105</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="C12" s="1">
         <v>106</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
       <c r="C13" s="1">
         <v>101</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="C14" s="1">
         <v>102</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="C15" s="1">
         <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="C16" s="1">
         <v>104</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="C17" s="1">
         <v>105</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C18" s="1">
         <v>106</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="C19" s="1">
         <v>101</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="C20" s="1">
         <v>102</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="C21" s="1">
         <v>103</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="C22" s="1">
         <v>104</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="C23" s="1">
         <v>105</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="C24" s="1">
         <v>106</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>787</v>
+        <v>802</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>788</v>
+        <v>803</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>790</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>792</v>
+        <v>807</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>795</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -9024,13 +9127,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>796</v>
+        <v>811</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>797</v>
+        <v>812</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9041,13 +9144,13 @@
         <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>801</v>
+        <v>816</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9069,152 +9172,152 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>802</v>
+        <v>817</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>805</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>806</v>
+        <v>821</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>807</v>
+        <v>822</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>808</v>
+        <v>823</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>809</v>
+        <v>824</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>810</v>
+        <v>825</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>813</v>
+        <v>828</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>814</v>
+        <v>829</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>815</v>
+        <v>830</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>817</v>
+        <v>832</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>803</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>819</v>
+        <v>834</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>795</v>
+        <v>810</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>820</v>
+        <v>835</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>

--- a/策划/Props.xlsx
+++ b/策划/Props.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\IT\Projects\Laya\Laya2.13.1_beta_framework\策划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DF1A8F-AB17-412F-901C-8CC5D2634D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907D8349-D356-4342-9240-028648EAE954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="910" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="1575" windowWidth="21600" windowHeight="11385" tabRatio="910" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!表格式" sheetId="7" r:id="rId1"/>
@@ -216,9 +216,6 @@
     <t>装备部位</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
@@ -852,9 +849,6 @@
     <t>体质属性可使用加成</t>
   </si>
   <si>
-    <t>#Name</t>
-  </si>
-  <si>
     <t>武器</t>
   </si>
   <si>
@@ -925,12 +919,6 @@
   </si>
   <si>
     <t>等级</t>
-  </si>
-  <si>
-    <t>Addition</t>
-  </si>
-  <si>
-    <t>Level</t>
   </si>
   <si>
     <t>一级攻击宝石</t>
@@ -2758,6 +2746,22 @@
   </si>
   <si>
     <t>//</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>addition</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3213,27 +3217,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3249,10 +3253,10 @@
     </row>
     <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -3260,10 +3264,10 @@
     </row>
     <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
@@ -3271,10 +3275,10 @@
     </row>
     <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
@@ -3282,10 +3286,10 @@
     </row>
     <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D7" s="5">
         <v>4</v>
@@ -3293,10 +3297,10 @@
     </row>
     <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="D8" s="5">
         <v>5</v>
@@ -3304,10 +3308,10 @@
     </row>
     <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="D9" s="5">
         <v>6</v>
@@ -3315,10 +3319,10 @@
     </row>
     <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="D10" s="5">
         <v>7</v>
@@ -3326,10 +3330,10 @@
     </row>
     <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="D11" s="5">
         <v>8</v>
@@ -3337,10 +3341,10 @@
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -3348,10 +3352,10 @@
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
@@ -3359,10 +3363,10 @@
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D14" s="6">
         <v>3</v>
@@ -3370,10 +3374,10 @@
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D15" s="6">
         <v>4</v>
@@ -3381,10 +3385,10 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D16" s="6">
         <v>5</v>
@@ -3392,10 +3396,10 @@
     </row>
     <row r="17" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D17" s="6">
         <v>6</v>
@@ -3403,10 +3407,10 @@
     </row>
     <row r="18" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="D18" s="6">
         <v>7</v>
@@ -3414,10 +3418,10 @@
     </row>
     <row r="19" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="D19" s="6">
         <v>8</v>
@@ -3425,10 +3429,10 @@
     </row>
     <row r="20" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
@@ -3436,10 +3440,10 @@
     </row>
     <row r="21" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="D21" s="5">
         <v>2</v>
@@ -3447,10 +3451,10 @@
     </row>
     <row r="22" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="D22" s="5">
         <v>3</v>
@@ -3458,10 +3462,10 @@
     </row>
     <row r="23" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="D23" s="5">
         <v>4</v>
@@ -3469,10 +3473,10 @@
     </row>
     <row r="24" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="D24" s="5">
         <v>5</v>
@@ -3480,10 +3484,10 @@
     </row>
     <row r="25" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D25" s="5">
         <v>6</v>
@@ -3491,10 +3495,10 @@
     </row>
     <row r="26" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="D26" s="5">
         <v>7</v>
@@ -3502,10 +3506,10 @@
     </row>
     <row r="27" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="D27" s="5">
         <v>8</v>
@@ -3513,10 +3517,10 @@
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -3524,10 +3528,10 @@
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="D29" s="6">
         <v>2</v>
@@ -3535,10 +3539,10 @@
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="D30" s="6">
         <v>3</v>
@@ -3546,10 +3550,10 @@
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="D31" s="6">
         <v>4</v>
@@ -3557,10 +3561,10 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="D32" s="6">
         <v>5</v>
@@ -3568,10 +3572,10 @@
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="D33" s="6">
         <v>6</v>
@@ -3579,10 +3583,10 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="D34" s="6">
         <v>7</v>
@@ -3590,10 +3594,10 @@
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="D35" s="6">
         <v>8</v>
@@ -3601,10 +3605,10 @@
     </row>
     <row r="36" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="D36" s="5">
         <v>1</v>
@@ -3612,10 +3616,10 @@
     </row>
     <row r="37" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="D37" s="5">
         <v>2</v>
@@ -3623,10 +3627,10 @@
     </row>
     <row r="38" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="D38" s="5">
         <v>3</v>
@@ -3634,10 +3638,10 @@
     </row>
     <row r="39" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="D39" s="5">
         <v>4</v>
@@ -3645,10 +3649,10 @@
     </row>
     <row r="40" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="D40" s="5">
         <v>5</v>
@@ -3656,10 +3660,10 @@
     </row>
     <row r="41" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="D41" s="5">
         <v>6</v>
@@ -3667,10 +3671,10 @@
     </row>
     <row r="42" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="D42" s="5">
         <v>7</v>
@@ -3678,10 +3682,10 @@
     </row>
     <row r="43" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="D43" s="5">
         <v>8</v>
@@ -3689,10 +3693,10 @@
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
@@ -3700,10 +3704,10 @@
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="D45" s="6">
         <v>2</v>
@@ -3711,10 +3715,10 @@
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="D46" s="6">
         <v>3</v>
@@ -3722,10 +3726,10 @@
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="D47" s="6">
         <v>4</v>
@@ -3733,10 +3737,10 @@
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="D48" s="6">
         <v>5</v>
@@ -3744,10 +3748,10 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="D49" s="6">
         <v>6</v>
@@ -3755,10 +3759,10 @@
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="D50" s="6">
         <v>7</v>
@@ -3766,10 +3770,10 @@
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="D51" s="6">
         <v>8</v>
@@ -3777,10 +3781,10 @@
     </row>
     <row r="52" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="D52" s="5">
         <v>1</v>
@@ -3788,10 +3792,10 @@
     </row>
     <row r="53" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="D53" s="5">
         <v>2</v>
@@ -3799,10 +3803,10 @@
     </row>
     <row r="54" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="D54" s="5">
         <v>3</v>
@@ -3810,10 +3814,10 @@
     </row>
     <row r="55" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="D55" s="5">
         <v>4</v>
@@ -3821,10 +3825,10 @@
     </row>
     <row r="56" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="D56" s="5">
         <v>5</v>
@@ -3832,10 +3836,10 @@
     </row>
     <row r="57" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="D57" s="5">
         <v>6</v>
@@ -3843,10 +3847,10 @@
     </row>
     <row r="58" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="D58" s="5">
         <v>7</v>
@@ -3854,10 +3858,10 @@
     </row>
     <row r="59" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="D59" s="5">
         <v>8</v>
@@ -3865,10 +3869,10 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="D60" s="6">
         <v>1</v>
@@ -3876,10 +3880,10 @@
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="D61" s="6">
         <v>2</v>
@@ -3887,10 +3891,10 @@
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="D62" s="6">
         <v>3</v>
@@ -3898,10 +3902,10 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="D63" s="6">
         <v>4</v>
@@ -3909,10 +3913,10 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D64" s="6">
         <v>5</v>
@@ -3920,10 +3924,10 @@
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="D65" s="6">
         <v>6</v>
@@ -3931,10 +3935,10 @@
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="D66" s="6">
         <v>7</v>
@@ -3942,10 +3946,10 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="D67" s="6">
         <v>8</v>
@@ -3953,10 +3957,10 @@
     </row>
     <row r="68" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="D68" s="5">
         <v>1</v>
@@ -3964,10 +3968,10 @@
     </row>
     <row r="69" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="D69" s="5">
         <v>2</v>
@@ -3975,10 +3979,10 @@
     </row>
     <row r="70" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="D70" s="5">
         <v>3</v>
@@ -3986,10 +3990,10 @@
     </row>
     <row r="71" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="D71" s="5">
         <v>4</v>
@@ -3997,10 +4001,10 @@
     </row>
     <row r="72" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="D72" s="5">
         <v>5</v>
@@ -4008,10 +4012,10 @@
     </row>
     <row r="73" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="D73" s="5">
         <v>6</v>
@@ -4019,10 +4023,10 @@
     </row>
     <row r="74" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="D74" s="5">
         <v>7</v>
@@ -4030,10 +4034,10 @@
     </row>
     <row r="75" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="D75" s="5">
         <v>8</v>
@@ -4041,10 +4045,10 @@
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
@@ -4052,10 +4056,10 @@
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="D77" s="6">
         <v>2</v>
@@ -4063,10 +4067,10 @@
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="D78" s="6">
         <v>3</v>
@@ -4074,10 +4078,10 @@
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="D79" s="6">
         <v>4</v>
@@ -4085,10 +4089,10 @@
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="D80" s="6">
         <v>5</v>
@@ -4096,10 +4100,10 @@
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="D81" s="6">
         <v>6</v>
@@ -4107,10 +4111,10 @@
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="D82" s="6">
         <v>7</v>
@@ -4118,10 +4122,10 @@
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="D83" s="6">
         <v>8</v>
@@ -4129,10 +4133,10 @@
     </row>
     <row r="84" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="D84" s="5">
         <v>1</v>
@@ -4140,10 +4144,10 @@
     </row>
     <row r="85" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="D85" s="5">
         <v>2</v>
@@ -4151,10 +4155,10 @@
     </row>
     <row r="86" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="D86" s="5">
         <v>3</v>
@@ -4162,10 +4166,10 @@
     </row>
     <row r="87" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="D87" s="5">
         <v>4</v>
@@ -4173,10 +4177,10 @@
     </row>
     <row r="88" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="D88" s="5">
         <v>5</v>
@@ -4184,10 +4188,10 @@
     </row>
     <row r="89" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="D89" s="5">
         <v>6</v>
@@ -4195,10 +4199,10 @@
     </row>
     <row r="90" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="D90" s="5">
         <v>7</v>
@@ -4206,10 +4210,10 @@
     </row>
     <row r="91" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="D91" s="5">
         <v>8</v>
@@ -4217,10 +4221,10 @@
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="D92" s="6">
         <v>1</v>
@@ -4228,10 +4232,10 @@
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="D93" s="6">
         <v>2</v>
@@ -4239,10 +4243,10 @@
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="D94" s="6">
         <v>3</v>
@@ -4250,10 +4254,10 @@
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="D95" s="6">
         <v>4</v>
@@ -4261,10 +4265,10 @@
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="D96" s="6">
         <v>5</v>
@@ -4272,10 +4276,10 @@
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="D97" s="6">
         <v>6</v>
@@ -4283,10 +4287,10 @@
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="D98" s="6">
         <v>7</v>
@@ -4294,10 +4298,10 @@
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="D99" s="6">
         <v>8</v>
@@ -4305,46 +4309,46 @@
     </row>
     <row r="100" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="D100" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="101" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="D101" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="102" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="D102" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="103" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="D103" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4373,45 +4377,45 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>608</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>610</v>
-      </c>
       <c r="G2" s="11" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4419,19 +4423,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4439,19 +4443,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4459,19 +4463,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4479,19 +4483,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4499,19 +4503,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4519,19 +4523,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4539,19 +4543,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4559,19 +4563,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4579,19 +4583,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="G11" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4599,13 +4603,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -4613,13 +4617,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -4627,13 +4631,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4641,13 +4645,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4661,7 +4665,7 @@
   <dimension ref="A1:E203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4674,30 +4678,30 @@
   <sheetData>
     <row r="1" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B1" s="10" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>243</v>
+      <c r="B2" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
@@ -4705,13 +4709,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -4719,10 +4723,10 @@
         <v>7000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -4733,10 +4737,10 @@
         <v>7001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -4747,10 +4751,10 @@
         <v>7002</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -4761,10 +4765,10 @@
         <v>7003</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
@@ -4775,10 +4779,10 @@
         <v>7004</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
@@ -4789,10 +4793,10 @@
         <v>7005</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
@@ -4803,10 +4807,10 @@
         <v>7006</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
@@ -4817,10 +4821,10 @@
         <v>7007</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -4831,10 +4835,10 @@
         <v>7008</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E12" s="1">
         <v>9</v>
@@ -4845,10 +4849,10 @@
         <v>7009</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
@@ -4859,10 +4863,10 @@
         <v>7010</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -4873,10 +4877,10 @@
         <v>7011</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -4887,10 +4891,10 @@
         <v>7012</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E16" s="1">
         <v>3</v>
@@ -4901,10 +4905,10 @@
         <v>7013</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E17" s="1">
         <v>4</v>
@@ -4915,10 +4919,10 @@
         <v>7014</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
@@ -4929,10 +4933,10 @@
         <v>7015</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E19" s="1">
         <v>6</v>
@@ -4943,10 +4947,10 @@
         <v>7016</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E20" s="1">
         <v>7</v>
@@ -4957,10 +4961,10 @@
         <v>7017</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E21" s="1">
         <v>8</v>
@@ -4971,10 +4975,10 @@
         <v>7018</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E22" s="1">
         <v>9</v>
@@ -4985,10 +4989,10 @@
         <v>7019</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E23" s="1">
         <v>10</v>
@@ -4999,10 +5003,10 @@
         <v>7020</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -5013,10 +5017,10 @@
         <v>7021</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
@@ -5027,10 +5031,10 @@
         <v>7022</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
@@ -5041,10 +5045,10 @@
         <v>7023</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E27" s="1">
         <v>4</v>
@@ -5052,16 +5056,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B28" s="1">
         <v>7024</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>
@@ -5072,10 +5076,10 @@
         <v>7025</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E29" s="1">
         <v>6</v>
@@ -5086,10 +5090,10 @@
         <v>7026</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="E30" s="1">
         <v>7</v>
@@ -5100,10 +5104,10 @@
         <v>7027</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E31" s="1">
         <v>8</v>
@@ -5114,10 +5118,10 @@
         <v>7028</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E32" s="1">
         <v>9</v>
@@ -5128,10 +5132,10 @@
         <v>7029</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E33" s="1">
         <v>10</v>
@@ -5142,10 +5146,10 @@
         <v>7030</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -5156,10 +5160,10 @@
         <v>7031</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
@@ -5170,10 +5174,10 @@
         <v>7032</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
@@ -5184,10 +5188,10 @@
         <v>7033</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E37" s="1">
         <v>4</v>
@@ -5198,10 +5202,10 @@
         <v>7034</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E38" s="1">
         <v>5</v>
@@ -5212,10 +5216,10 @@
         <v>7035</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E39" s="1">
         <v>6</v>
@@ -5226,10 +5230,10 @@
         <v>7036</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E40" s="1">
         <v>7</v>
@@ -5240,10 +5244,10 @@
         <v>7037</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E41" s="1">
         <v>8</v>
@@ -5254,10 +5258,10 @@
         <v>7038</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E42" s="1">
         <v>9</v>
@@ -5268,10 +5272,10 @@
         <v>7039</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E43" s="1">
         <v>10</v>
@@ -5282,10 +5286,10 @@
         <v>7040</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -5296,10 +5300,10 @@
         <v>7041</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
@@ -5310,10 +5314,10 @@
         <v>7042</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E46" s="1">
         <v>3</v>
@@ -5324,10 +5328,10 @@
         <v>7043</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E47" s="1">
         <v>4</v>
@@ -5338,10 +5342,10 @@
         <v>7044</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E48" s="1">
         <v>5</v>
@@ -5352,10 +5356,10 @@
         <v>7045</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E49" s="1">
         <v>6</v>
@@ -5366,10 +5370,10 @@
         <v>7046</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E50" s="1">
         <v>7</v>
@@ -5380,10 +5384,10 @@
         <v>7047</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E51" s="1">
         <v>8</v>
@@ -5394,10 +5398,10 @@
         <v>7048</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E52" s="1">
         <v>9</v>
@@ -5408,10 +5412,10 @@
         <v>7049</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="E53" s="1">
         <v>10</v>
@@ -5422,10 +5426,10 @@
         <v>7050</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -5436,10 +5440,10 @@
         <v>7051</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E55" s="1">
         <v>2</v>
@@ -5450,10 +5454,10 @@
         <v>7052</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E56" s="1">
         <v>3</v>
@@ -5464,10 +5468,10 @@
         <v>7053</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E57" s="1">
         <v>4</v>
@@ -5478,10 +5482,10 @@
         <v>7054</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E58" s="1">
         <v>5</v>
@@ -5492,10 +5496,10 @@
         <v>7055</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E59" s="1">
         <v>6</v>
@@ -5506,10 +5510,10 @@
         <v>7056</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E60" s="1">
         <v>7</v>
@@ -5520,10 +5524,10 @@
         <v>7057</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E61" s="1">
         <v>8</v>
@@ -5534,10 +5538,10 @@
         <v>7058</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E62" s="1">
         <v>9</v>
@@ -5548,10 +5552,10 @@
         <v>7059</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="E63" s="1">
         <v>10</v>
@@ -5562,10 +5566,10 @@
         <v>7060</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -5576,10 +5580,10 @@
         <v>7061</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E65" s="1">
         <v>2</v>
@@ -5590,10 +5594,10 @@
         <v>7062</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -5604,10 +5608,10 @@
         <v>7063</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E67" s="1">
         <v>4</v>
@@ -5618,10 +5622,10 @@
         <v>7064</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E68" s="1">
         <v>5</v>
@@ -5632,10 +5636,10 @@
         <v>7065</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="E69" s="1">
         <v>6</v>
@@ -5646,10 +5650,10 @@
         <v>7066</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E70" s="1">
         <v>7</v>
@@ -5660,10 +5664,10 @@
         <v>7067</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E71" s="1">
         <v>8</v>
@@ -5674,10 +5678,10 @@
         <v>7068</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="E72" s="1">
         <v>9</v>
@@ -5688,10 +5692,10 @@
         <v>7069</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E73" s="1">
         <v>10</v>
@@ -5702,10 +5706,10 @@
         <v>7070</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -5716,10 +5720,10 @@
         <v>7071</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E75" s="1">
         <v>2</v>
@@ -5730,10 +5734,10 @@
         <v>7072</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E76" s="1">
         <v>3</v>
@@ -5744,10 +5748,10 @@
         <v>7073</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E77" s="1">
         <v>4</v>
@@ -5758,10 +5762,10 @@
         <v>7074</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E78" s="1">
         <v>5</v>
@@ -5772,10 +5776,10 @@
         <v>7075</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E79" s="1">
         <v>6</v>
@@ -5786,10 +5790,10 @@
         <v>7076</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="E80" s="1">
         <v>7</v>
@@ -5800,10 +5804,10 @@
         <v>7077</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E81" s="1">
         <v>8</v>
@@ -5814,10 +5818,10 @@
         <v>7078</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E82" s="1">
         <v>9</v>
@@ -5828,10 +5832,10 @@
         <v>7079</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E83" s="1">
         <v>10</v>
@@ -5842,10 +5846,10 @@
         <v>7080</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -5856,10 +5860,10 @@
         <v>7081</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E85" s="1">
         <v>2</v>
@@ -5870,10 +5874,10 @@
         <v>7082</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E86" s="1">
         <v>3</v>
@@ -5884,10 +5888,10 @@
         <v>7083</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E87" s="1">
         <v>4</v>
@@ -5898,10 +5902,10 @@
         <v>7084</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E88" s="1">
         <v>5</v>
@@ -5912,10 +5916,10 @@
         <v>7085</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E89" s="1">
         <v>6</v>
@@ -5926,10 +5930,10 @@
         <v>7086</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E90" s="1">
         <v>7</v>
@@ -5940,10 +5944,10 @@
         <v>7087</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E91" s="1">
         <v>8</v>
@@ -5954,10 +5958,10 @@
         <v>7088</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E92" s="1">
         <v>9</v>
@@ -5968,10 +5972,10 @@
         <v>7089</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E93" s="1">
         <v>10</v>
@@ -5982,10 +5986,10 @@
         <v>7090</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -5996,10 +6000,10 @@
         <v>7091</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E95" s="1">
         <v>2</v>
@@ -6010,10 +6014,10 @@
         <v>7092</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E96" s="1">
         <v>3</v>
@@ -6024,10 +6028,10 @@
         <v>7093</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E97" s="1">
         <v>4</v>
@@ -6038,10 +6042,10 @@
         <v>7094</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E98" s="1">
         <v>5</v>
@@ -6052,10 +6056,10 @@
         <v>7095</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E99" s="1">
         <v>6</v>
@@ -6066,10 +6070,10 @@
         <v>7096</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E100" s="1">
         <v>7</v>
@@ -6080,10 +6084,10 @@
         <v>7097</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E101" s="1">
         <v>8</v>
@@ -6094,10 +6098,10 @@
         <v>7098</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E102" s="1">
         <v>9</v>
@@ -6108,10 +6112,10 @@
         <v>7099</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="E103" s="1">
         <v>10</v>
@@ -6122,10 +6126,10 @@
         <v>7100</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -6136,10 +6140,10 @@
         <v>7101</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E105" s="1">
         <v>2</v>
@@ -6150,10 +6154,10 @@
         <v>7102</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="E106" s="1">
         <v>3</v>
@@ -6164,10 +6168,10 @@
         <v>7103</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E107" s="1">
         <v>4</v>
@@ -6178,10 +6182,10 @@
         <v>7104</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E108" s="1">
         <v>5</v>
@@ -6192,10 +6196,10 @@
         <v>7105</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="E109" s="1">
         <v>6</v>
@@ -6206,10 +6210,10 @@
         <v>7106</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E110" s="1">
         <v>7</v>
@@ -6220,10 +6224,10 @@
         <v>7107</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E111" s="1">
         <v>8</v>
@@ -6234,10 +6238,10 @@
         <v>7108</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="E112" s="1">
         <v>9</v>
@@ -6248,10 +6252,10 @@
         <v>7109</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="E113" s="1">
         <v>10</v>
@@ -6262,10 +6266,10 @@
         <v>7110</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E114" s="1">
         <v>1</v>
@@ -6276,10 +6280,10 @@
         <v>7111</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E115" s="1">
         <v>2</v>
@@ -6290,10 +6294,10 @@
         <v>7112</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
@@ -6304,10 +6308,10 @@
         <v>7113</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="E117" s="1">
         <v>4</v>
@@ -6318,10 +6322,10 @@
         <v>7114</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E118" s="1">
         <v>5</v>
@@ -6332,10 +6336,10 @@
         <v>7115</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E119" s="1">
         <v>6</v>
@@ -6346,10 +6350,10 @@
         <v>7116</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E120" s="1">
         <v>7</v>
@@ -6360,10 +6364,10 @@
         <v>7117</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E121" s="1">
         <v>8</v>
@@ -6374,10 +6378,10 @@
         <v>7118</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E122" s="1">
         <v>9</v>
@@ -6388,10 +6392,10 @@
         <v>7119</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E123" s="1">
         <v>10</v>
@@ -6402,10 +6406,10 @@
         <v>7120</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -6416,10 +6420,10 @@
         <v>7121</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E125" s="1">
         <v>2</v>
@@ -6430,10 +6434,10 @@
         <v>7122</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E126" s="1">
         <v>3</v>
@@ -6444,10 +6448,10 @@
         <v>7123</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E127" s="1">
         <v>4</v>
@@ -6458,10 +6462,10 @@
         <v>7124</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E128" s="1">
         <v>5</v>
@@ -6472,10 +6476,10 @@
         <v>7125</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E129" s="1">
         <v>6</v>
@@ -6486,10 +6490,10 @@
         <v>7126</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E130" s="1">
         <v>7</v>
@@ -6500,10 +6504,10 @@
         <v>7127</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E131" s="1">
         <v>8</v>
@@ -6514,10 +6518,10 @@
         <v>7128</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E132" s="1">
         <v>9</v>
@@ -6528,10 +6532,10 @@
         <v>7129</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E133" s="1">
         <v>10</v>
@@ -6542,10 +6546,10 @@
         <v>7130</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E134" s="1">
         <v>1</v>
@@ -6556,10 +6560,10 @@
         <v>7131</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E135" s="1">
         <v>2</v>
@@ -6570,10 +6574,10 @@
         <v>7132</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E136" s="1">
         <v>3</v>
@@ -6584,10 +6588,10 @@
         <v>7133</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E137" s="1">
         <v>4</v>
@@ -6598,10 +6602,10 @@
         <v>7134</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E138" s="1">
         <v>5</v>
@@ -6612,10 +6616,10 @@
         <v>7135</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="E139" s="1">
         <v>6</v>
@@ -6626,10 +6630,10 @@
         <v>7136</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E140" s="1">
         <v>7</v>
@@ -6640,10 +6644,10 @@
         <v>7137</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="E141" s="1">
         <v>8</v>
@@ -6654,10 +6658,10 @@
         <v>7138</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="E142" s="1">
         <v>9</v>
@@ -6668,10 +6672,10 @@
         <v>7139</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="E143" s="1">
         <v>10</v>
@@ -6682,10 +6686,10 @@
         <v>7140</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E144" s="1">
         <v>1</v>
@@ -6696,10 +6700,10 @@
         <v>7141</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E145" s="1">
         <v>2</v>
@@ -6710,10 +6714,10 @@
         <v>7142</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E146" s="1">
         <v>3</v>
@@ -6724,10 +6728,10 @@
         <v>7143</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E147" s="1">
         <v>4</v>
@@ -6738,10 +6742,10 @@
         <v>7144</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="E148" s="1">
         <v>5</v>
@@ -6752,10 +6756,10 @@
         <v>7145</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="E149" s="1">
         <v>6</v>
@@ -6766,10 +6770,10 @@
         <v>7146</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E150" s="1">
         <v>7</v>
@@ -6780,10 +6784,10 @@
         <v>7147</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E151" s="1">
         <v>8</v>
@@ -6794,10 +6798,10 @@
         <v>7148</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="E152" s="1">
         <v>9</v>
@@ -6808,10 +6812,10 @@
         <v>7149</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="E153" s="1">
         <v>10</v>
@@ -6822,10 +6826,10 @@
         <v>7150</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E154" s="1">
         <v>1</v>
@@ -6836,10 +6840,10 @@
         <v>7151</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E155" s="1">
         <v>2</v>
@@ -6850,10 +6854,10 @@
         <v>7152</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E156" s="1">
         <v>3</v>
@@ -6864,10 +6868,10 @@
         <v>7153</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E157" s="1">
         <v>4</v>
@@ -6878,10 +6882,10 @@
         <v>7154</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="E158" s="1">
         <v>5</v>
@@ -6892,10 +6896,10 @@
         <v>7155</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E159" s="1">
         <v>6</v>
@@ -6906,10 +6910,10 @@
         <v>7156</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E160" s="1">
         <v>7</v>
@@ -6920,10 +6924,10 @@
         <v>7157</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E161" s="1">
         <v>8</v>
@@ -6934,10 +6938,10 @@
         <v>7158</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E162" s="1">
         <v>9</v>
@@ -6948,10 +6952,10 @@
         <v>7159</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E163" s="1">
         <v>10</v>
@@ -6962,10 +6966,10 @@
         <v>7160</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E164" s="1">
         <v>1</v>
@@ -6976,10 +6980,10 @@
         <v>7161</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E165" s="1">
         <v>2</v>
@@ -6990,10 +6994,10 @@
         <v>7162</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E166" s="1">
         <v>3</v>
@@ -7004,10 +7008,10 @@
         <v>7163</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E167" s="1">
         <v>4</v>
@@ -7018,10 +7022,10 @@
         <v>7164</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E168" s="1">
         <v>5</v>
@@ -7032,10 +7036,10 @@
         <v>7165</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E169" s="1">
         <v>6</v>
@@ -7046,10 +7050,10 @@
         <v>7166</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E170" s="1">
         <v>7</v>
@@ -7060,10 +7064,10 @@
         <v>7167</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E171" s="1">
         <v>8</v>
@@ -7074,10 +7078,10 @@
         <v>7168</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E172" s="1">
         <v>9</v>
@@ -7088,10 +7092,10 @@
         <v>7169</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="E173" s="1">
         <v>10</v>
@@ -7102,10 +7106,10 @@
         <v>7170</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E174" s="1">
         <v>1</v>
@@ -7116,10 +7120,10 @@
         <v>7171</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E175" s="1">
         <v>2</v>
@@ -7130,10 +7134,10 @@
         <v>7172</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E176" s="1">
         <v>3</v>
@@ -7144,10 +7148,10 @@
         <v>7173</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E177" s="1">
         <v>4</v>
@@ -7158,10 +7162,10 @@
         <v>7174</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E178" s="1">
         <v>5</v>
@@ -7172,10 +7176,10 @@
         <v>7175</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E179" s="1">
         <v>6</v>
@@ -7186,10 +7190,10 @@
         <v>7176</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E180" s="1">
         <v>7</v>
@@ -7200,10 +7204,10 @@
         <v>7177</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E181" s="1">
         <v>8</v>
@@ -7214,10 +7218,10 @@
         <v>7178</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="E182" s="1">
         <v>9</v>
@@ -7228,10 +7232,10 @@
         <v>7179</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E183" s="1">
         <v>10</v>
@@ -7242,10 +7246,10 @@
         <v>7180</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E184" s="1">
         <v>1</v>
@@ -7256,10 +7260,10 @@
         <v>7181</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E185" s="1">
         <v>2</v>
@@ -7270,10 +7274,10 @@
         <v>7182</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E186" s="1">
         <v>3</v>
@@ -7284,10 +7288,10 @@
         <v>7183</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E187" s="1">
         <v>4</v>
@@ -7298,10 +7302,10 @@
         <v>7184</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E188" s="1">
         <v>5</v>
@@ -7312,10 +7316,10 @@
         <v>7185</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E189" s="1">
         <v>6</v>
@@ -7326,10 +7330,10 @@
         <v>7186</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E190" s="1">
         <v>7</v>
@@ -7340,10 +7344,10 @@
         <v>7187</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E191" s="1">
         <v>8</v>
@@ -7354,10 +7358,10 @@
         <v>7188</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E192" s="1">
         <v>9</v>
@@ -7368,10 +7372,10 @@
         <v>7189</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E193" s="1">
         <v>10</v>
@@ -7382,10 +7386,10 @@
         <v>7190</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E194" s="1">
         <v>1</v>
@@ -7396,10 +7400,10 @@
         <v>7191</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E195" s="1">
         <v>2</v>
@@ -7410,10 +7414,10 @@
         <v>7192</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E196" s="1">
         <v>3</v>
@@ -7424,10 +7428,10 @@
         <v>7193</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E197" s="1">
         <v>4</v>
@@ -7438,10 +7442,10 @@
         <v>7194</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E198" s="1">
         <v>5</v>
@@ -7452,10 +7456,10 @@
         <v>7195</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E199" s="1">
         <v>6</v>
@@ -7466,10 +7470,10 @@
         <v>7196</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E200" s="1">
         <v>7</v>
@@ -7480,10 +7484,10 @@
         <v>7197</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E201" s="1">
         <v>8</v>
@@ -7494,10 +7498,10 @@
         <v>7198</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E202" s="1">
         <v>9</v>
@@ -7508,10 +7512,10 @@
         <v>7199</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E203" s="1">
         <v>10</v>
@@ -7539,27 +7543,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7567,7 +7571,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7575,10 +7579,10 @@
         <v>2000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7586,10 +7590,10 @@
         <v>2001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7597,10 +7601,10 @@
         <v>2002</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -7608,10 +7612,10 @@
         <v>2003</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -7619,10 +7623,10 @@
         <v>2004</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -7630,10 +7634,10 @@
         <v>2005</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -7641,10 +7645,10 @@
         <v>2006</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -7652,7 +7656,7 @@
         <v>2007</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -7660,7 +7664,7 @@
         <v>2008</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -7668,7 +7672,7 @@
         <v>2009</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7676,7 +7680,7 @@
         <v>2010</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
@@ -7684,76 +7688,76 @@
         <v>2011</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -7779,178 +7783,178 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C3" s="10" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -7975,33 +7979,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -8009,10 +8013,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -8020,7 +8024,7 @@
         <v>4000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -8034,7 +8038,7 @@
         <v>4001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -8048,7 +8052,7 @@
         <v>4002</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -8062,7 +8066,7 @@
         <v>4003</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -8076,7 +8080,7 @@
         <v>4004</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -8090,7 +8094,7 @@
         <v>4005</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -8104,7 +8108,7 @@
         <v>4006</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -8118,7 +8122,7 @@
         <v>4007</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -8132,7 +8136,7 @@
         <v>4008</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -8146,7 +8150,7 @@
         <v>4009</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -8179,33 +8183,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -8213,361 +8217,361 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D7" s="1">
         <v>101</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D8" s="1">
         <v>102</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D9" s="1">
         <v>103</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D10" s="1">
         <v>104</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D11" s="1">
         <v>105</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D12" s="1">
         <v>106</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D13" s="1">
         <v>101</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D14" s="1">
         <v>102</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D15" s="1">
         <v>103</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D16" s="1">
         <v>104</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D17" s="1">
         <v>105</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D18" s="1">
         <v>106</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D19" s="1">
         <v>101</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D20" s="1">
         <v>102</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D21" s="1">
         <v>103</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D22" s="1">
         <v>104</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D23" s="1">
         <v>105</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D24" s="1">
         <v>106</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -8596,39 +8600,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -8636,166 +8640,166 @@
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
